--- a/outputs-r202/g__UBA2450.xlsx
+++ b/outputs-r202/g__UBA2450.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -565,6 +570,11 @@
         <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
+        <is>
+          <t>s__UBA2450 sp900314865</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>s__UBA2450 sp900314865</t>
         </is>

--- a/outputs-r202/g__UBA2450.xlsx
+++ b/outputs-r202/g__UBA2450.xlsx
@@ -2,7 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -10,7 +9,7 @@
     <sheet name="g__UBA2450_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -20,10 +19,7 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,7 +33,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -54,18 +64,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,94 +446,84 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Row</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>1-s__UBA2450 sp002342545</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>2-s__UBA2450 sp002353275</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>3-s__UBA2450 sp002373085</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>4-s__UBA2450 sp002392945</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>5-s__UBA2450 sp900314865</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>6-s__UBA2450 sp902769185</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>7-s__UBA2450 sp902797795</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>8-s__UBA2450 sp902800025</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>9-s__UBA2450 sp902800355</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>10-s__UBA2450 sp902800645</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>11-s__UBA2450 sp902800905</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>12-s__UBA2450 sp902802905</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>13-s__UBA2450 sp902803285</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>RUG042.fasta</t>
         </is>
@@ -566,15 +567,7 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>s__UBA2450 sp900314865</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>s__UBA2450 sp900314865</t>
         </is>

--- a/outputs-r202/g__UBA2450.xlsx
+++ b/outputs-r202/g__UBA2450.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -9,7 +10,7 @@
     <sheet name="g__UBA2450_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +20,10 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -33,21 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,19 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -437,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,84 +435,94 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Row</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1-s__UBA2450 sp002342545</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2-s__UBA2450 sp002353275</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3-s__UBA2450 sp002373085</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4-s__UBA2450 sp002392945</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5-s__UBA2450 sp900314865</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>6-s__UBA2450 sp902769185</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7-s__UBA2450 sp902797795</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8-s__UBA2450 sp902800025</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>9-s__UBA2450 sp902800355</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10-s__UBA2450 sp902800645</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>11-s__UBA2450 sp902800905</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>12-s__UBA2450 sp902802905</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>13-s__UBA2450 sp902803285</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>prediction</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>RUG042.fasta</t>
         </is>
@@ -567,7 +566,15 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>s__UBA2450 sp900314865</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>s__UBA2450 sp900314865</t>
         </is>
